--- a/work/V1.2&V1.3待完善部分.xlsx
+++ b/work/V1.2&V1.3待完善部分.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caianhua\Documents\GitHub\hillcat.github.io\work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B472733-28E9-4ACB-8623-581D8FD5067E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3BD888C-2C30-4312-A335-2BB35AAC43AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6390" yWindow="2925" windowWidth="19545" windowHeight="12990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01" sheetId="1" r:id="rId1"/>
     <sheet name="02" sheetId="2" r:id="rId2"/>
+    <sheet name="03" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,6 +24,15 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>这里面两个接口返回的userTrueName不一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -169,6 +179,55 @@
         <a:xfrm>
           <a:off x="95250" y="9525"/>
           <a:ext cx="12895238" cy="7438095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>569486</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>94590</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBEFC2BD-0072-425C-BC20-15E7B1D4B879}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="228600" y="66675"/>
+          <a:ext cx="16114286" cy="5276190"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -446,7 +505,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="V14" sqref="V14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -462,8 +521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D584FA6E-8C8B-4441-9133-ECCFB2442AAD}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V15" sqref="V15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -472,4 +531,26 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8748207-087F-4A45-9AE2-A18A978A33AA}">
+  <dimension ref="D33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D33" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/work/V1.2&V1.3待完善部分.xlsx
+++ b/work/V1.2&V1.3待完善部分.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caianhua\Documents\GitHub\hillcat.github.io\work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3BD888C-2C30-4312-A335-2BB35AAC43AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64405CF3-F9BE-4584-BD4B-BC5D82E6FA1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01" sheetId="1" r:id="rId1"/>
     <sheet name="02" sheetId="2" r:id="rId2"/>
     <sheet name="03" sheetId="3" r:id="rId3"/>
+    <sheet name="04" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,9 +28,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>这里面两个接口返回的userTrueName不一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经处理完</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这里其实修改了identity数据库，考虑调用超管端接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桥梁主表还要增加两个字段，保证数据报表那边方便使用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -228,6 +241,55 @@
         <a:xfrm>
           <a:off x="228600" y="66675"/>
           <a:ext cx="16114286" cy="5276190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>208177</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>47106</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C7507D6-6E24-420F-8BD9-650199FFA11E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="200025" y="600075"/>
+          <a:ext cx="10980952" cy="4152381"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -502,14 +564,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="V14" sqref="V14"/>
+      <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="36" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -519,17 +587,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D584FA6E-8C8B-4441-9133-ECCFB2442AAD}">
-  <dimension ref="A1"/>
+  <dimension ref="E44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V15" sqref="V15"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="44" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E44" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -537,7 +612,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8748207-087F-4A45-9AE2-A18A978A33AA}">
   <dimension ref="D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
@@ -553,4 +628,26 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E027241-DA48-49E5-96F0-A25DCC6B40EC}">
+  <dimension ref="F31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="31" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F31" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>